--- a/plan/test/repository/単体テスト仕様書-EmployeeRepository.xlsx
+++ b/plan/test/repository/単体テスト仕様書-EmployeeRepository.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\新しいフォルダー\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\ec-b\plan\test\repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EFE3D35-A2F6-40CE-A168-9F0856760A1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A8CF605-F972-4CC9-9BF1-7B4D2F5512AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8250" yWindow="840" windowWidth="12080" windowHeight="7270" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EmployeeRepository" sheetId="166" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>作成者</t>
   </si>
@@ -160,10 +160,6 @@
     <rPh sb="0" eb="2">
       <t>ヤマサキ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>selectByIdAndPassword(id:Integer,password:String)</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -217,24 +213,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>下記を引数に当該メソッドを実行
-id = 1
-password = admin</t>
-    <rPh sb="0" eb="2">
-      <t>カキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヒキスウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t xml:space="preserve">トウガイ </t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t xml:space="preserve">ジッコウ </t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>データベースの社員アカウントテーブルからレコードのデータが引き出せていること</t>
     <rPh sb="7" eb="9">
       <t>シャイン</t>
@@ -268,6 +246,49 @@
     </rPh>
     <rPh sb="29" eb="30">
       <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>selectByUsername(username:String)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>下記を引数に当該メソッドを実行
+name = admin
+password = admin</t>
+    <rPh sb="0" eb="2">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t xml:space="preserve">トウガイ </t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t xml:space="preserve">ジッコウ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>selectNameIdAndPassword(name:String ,password:String)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>下記を引数に当該メソッドを実行
+name = admin</t>
+    <rPh sb="0" eb="2">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t xml:space="preserve">トウガイ </t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t xml:space="preserve">ジッコウ </t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -471,30 +492,36 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -503,12 +530,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -860,10 +881,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7:L7"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -880,25 +901,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19" t="s">
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -913,23 +934,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="19" t="s">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
       <c r="N2" s="1" t="s">
         <v>1</v>
       </c>
@@ -967,20 +988,20 @@
       <c r="B4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="23" t="s">
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="25"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="27"/>
       <c r="M4" s="9" t="s">
         <v>12</v>
       </c>
@@ -990,94 +1011,133 @@
       <c r="O4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="15" t="s">
+      <c r="P4" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="Q4" s="15"/>
+      <c r="Q4" s="24"/>
     </row>
     <row r="5" spans="1:17" ht="55" customHeight="1">
       <c r="A5" s="11">
         <v>1</v>
       </c>
       <c r="B5" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="22"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="19"/>
       <c r="M5" s="11"/>
       <c r="N5" s="11"/>
       <c r="O5" s="11"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
     </row>
     <row r="6" spans="1:17" ht="60" customHeight="1">
       <c r="A6" s="11">
         <v>2</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="22"/>
+        <v>28</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="19"/>
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
     </row>
     <row r="7" spans="1:17" ht="60" customHeight="1">
       <c r="A7" s="11">
         <v>3</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="22"/>
+        <v>18</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="19"/>
       <c r="M7" s="11"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="27"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="21"/>
+    </row>
+    <row r="8" spans="1:17" ht="60" customHeight="1">
+      <c r="A8" s="11">
+        <v>4</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="20">
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="F2:M2"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="H6:L6"/>
     <mergeCell ref="C7:G7"/>
@@ -1086,15 +1146,6 @@
     <mergeCell ref="P5:Q5"/>
     <mergeCell ref="H4:L4"/>
     <mergeCell ref="H5:L5"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="F2:M2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/plan/test/repository/単体テスト仕様書-EmployeeRepository.xlsx
+++ b/plan/test/repository/単体テスト仕様書-EmployeeRepository.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\ec-b\plan\test\repository\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\javaReview\ec-b\plan\test\repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A8CF605-F972-4CC9-9BF1-7B4D2F5512AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B67D50-AFD0-46ED-9108-B5AFA021DAB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8250" yWindow="840" windowWidth="12080" windowHeight="7270" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EmployeeRepository" sheetId="166" r:id="rId1"/>
@@ -272,10 +272,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>selectNameIdAndPassword(name:String ,password:String)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>下記を引数に当該メソッドを実行
 name = admin</t>
     <rPh sb="0" eb="2">
@@ -290,6 +286,10 @@
     <rPh sb="13" eb="15">
       <t xml:space="preserve">ジッコウ </t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>selectByNameAndPassword(name:String ,password:String)</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -493,10 +493,19 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -507,19 +516,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -883,8 +883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="G1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -901,25 +901,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="23" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23" t="s">
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -934,23 +934,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="23" t="s">
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23" t="s">
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
       <c r="N2" s="1" t="s">
         <v>1</v>
       </c>
@@ -988,13 +988,13 @@
       <c r="B4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
       <c r="H4" s="25" t="s">
         <v>8</v>
       </c>
@@ -1011,10 +1011,10 @@
       <c r="O4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="24" t="s">
+      <c r="P4" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="Q4" s="24"/>
+      <c r="Q4" s="18"/>
     </row>
     <row r="5" spans="1:17" ht="55" customHeight="1">
       <c r="A5" s="11">
@@ -1023,52 +1023,52 @@
       <c r="B5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="17" t="s">
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="19"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="22"/>
       <c r="M5" s="11"/>
       <c r="N5" s="11"/>
       <c r="O5" s="11"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
     </row>
     <row r="6" spans="1:17" ht="60" customHeight="1">
       <c r="A6" s="11">
         <v>2</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="17" t="s">
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="19"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="22"/>
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
     </row>
     <row r="7" spans="1:17" ht="60" customHeight="1">
       <c r="A7" s="11">
@@ -1077,25 +1077,25 @@
       <c r="B7" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="17" t="s">
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="19"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="22"/>
       <c r="M7" s="11"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="21"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="17"/>
     </row>
     <row r="8" spans="1:17" ht="60" customHeight="1">
       <c r="A8" s="11">
@@ -1104,28 +1104,33 @@
       <c r="B8" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="17" t="s">
+      <c r="C8" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="19"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="22"/>
       <c r="M8" s="11"/>
       <c r="N8" s="11"/>
       <c r="O8" s="11"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="21"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="F2:M2"/>
     <mergeCell ref="P6:Q6"/>
     <mergeCell ref="P7:Q7"/>
     <mergeCell ref="C4:G4"/>
@@ -1133,11 +1138,6 @@
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="H8:L8"/>
     <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="F2:M2"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="H6:L6"/>
     <mergeCell ref="C7:G7"/>

--- a/plan/test/repository/単体テスト仕様書-EmployeeRepository.xlsx
+++ b/plan/test/repository/単体テスト仕様書-EmployeeRepository.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\javaReview\ec-b\plan\test\repository\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B67D50-AFD0-46ED-9108-B5AFA021DAB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B83AB8-B065-4FF7-A8ED-05448664E51D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EmployeeRepository" sheetId="166" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
   <si>
     <t>作成者</t>
   </si>
@@ -133,10 +133,6 @@
     <rPh sb="3" eb="5">
       <t xml:space="preserve">タイショウ </t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>FS</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -213,19 +209,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>データベースの社員アカウントテーブルからレコードのデータが引き出せていること</t>
-    <rPh sb="7" eb="9">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>ダ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t xml:space="preserve">当該メソッドを実行
 </t>
     <rPh sb="0" eb="2">
@@ -255,24 +238,6 @@
   </si>
   <si>
     <t>下記を引数に当該メソッドを実行
-name = admin
-password = admin</t>
-    <rPh sb="0" eb="2">
-      <t>カキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヒキスウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t xml:space="preserve">トウガイ </t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t xml:space="preserve">ジッコウ </t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>下記を引数に当該メソッドを実行
 name = admin</t>
     <rPh sb="0" eb="2">
       <t>カキ</t>
@@ -289,7 +254,21 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>selectByNameAndPassword(name:String ,password:String)</t>
+    <t>高良</t>
+    <rPh sb="0" eb="2">
+      <t>タカラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>日本証券テクノロジー</t>
+    <rPh sb="0" eb="4">
+      <t>ニホンショウケン</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -297,7 +276,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <name val="明朝"/>
@@ -345,6 +324,13 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -448,7 +434,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -492,6 +478,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -516,12 +508,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -529,6 +515,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -881,10 +870,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q8"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="G1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:G7"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -896,61 +885,62 @@
     <col min="8" max="12" width="7.1796875" style="4" customWidth="1"/>
     <col min="13" max="13" width="8.36328125" style="4" customWidth="1"/>
     <col min="14" max="15" width="9.6328125" style="4" customWidth="1"/>
-    <col min="16" max="17" width="12.36328125" style="4" customWidth="1"/>
+    <col min="16" max="16" width="12.36328125" style="4" customWidth="1"/>
+    <col min="17" max="17" width="15.81640625" style="4" customWidth="1"/>
     <col min="18" max="16384" width="7" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="24" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="24" t="s">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
       <c r="N2" s="1" t="s">
         <v>1</v>
       </c>
@@ -960,7 +950,9 @@
       <c r="P2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="6"/>
+      <c r="Q2" s="6" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="3" spans="1:17" ht="11.25" customHeight="1">
       <c r="A3" s="7"/>
@@ -988,13 +980,13 @@
       <c r="B4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
       <c r="H4" s="25" t="s">
         <v>8</v>
       </c>
@@ -1011,141 +1003,129 @@
       <c r="O4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="18" t="s">
+      <c r="P4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="Q4" s="18"/>
+      <c r="Q4" s="20"/>
     </row>
     <row r="5" spans="1:17" ht="55" customHeight="1">
       <c r="A5" s="11">
         <v>1</v>
       </c>
       <c r="B5" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="28">
+        <v>45503</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
     </row>
     <row r="6" spans="1:17" ht="60" customHeight="1">
       <c r="A6" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" s="28">
+        <v>45503</v>
+      </c>
+      <c r="O6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="19"/>
     </row>
     <row r="7" spans="1:17" ht="60" customHeight="1">
       <c r="A7" s="11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="20" t="s">
+      <c r="C7" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="17"/>
-    </row>
-    <row r="8" spans="1:17" ht="60" customHeight="1">
-      <c r="A8" s="11">
-        <v>4</v>
-      </c>
-      <c r="B8" s="14" t="s">
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="17"/>
+      <c r="N7" s="28">
+        <v>45503</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="17">
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="H5:L5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F1:M1"/>
     <mergeCell ref="F2:M2"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="H5:L5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/plan/test/repository/単体テスト仕様書-EmployeeRepository.xlsx
+++ b/plan/test/repository/単体テスト仕様書-EmployeeRepository.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B83AB8-B065-4FF7-A8ED-05448664E51D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD220184-C7D3-4445-A0C8-CBCBD59DEE13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="4960" yWindow="500" windowWidth="14400" windowHeight="7270" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EmployeeRepository" sheetId="166" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
   <si>
     <t>作成者</t>
   </si>
@@ -268,6 +268,28 @@
     <t>日本証券テクノロジー</t>
     <rPh sb="0" eb="4">
       <t>ニホンショウケン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>selectByEmpId(Integer empId)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">下記を引数に当該メソッドを実行
+empId=1
+</t>
+    <rPh sb="0" eb="2">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t xml:space="preserve">トウガイ </t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t xml:space="preserve">ジッコウ </t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -478,28 +500,25 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="31" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -517,7 +536,10 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -870,10 +892,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A6" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -891,25 +913,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="16" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16" t="s">
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -924,23 +946,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="16" t="s">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16" t="s">
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
       <c r="N2" s="1" t="s">
         <v>1</v>
       </c>
@@ -980,20 +1002,20 @@
       <c r="B4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="25" t="s">
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="27"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="26"/>
       <c r="M4" s="9" t="s">
         <v>12</v>
       </c>
@@ -1003,10 +1025,10 @@
       <c r="O4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="20" t="s">
+      <c r="P4" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="Q4" s="20"/>
+      <c r="Q4" s="18"/>
     </row>
     <row r="5" spans="1:17" ht="55" customHeight="1">
       <c r="A5" s="11">
@@ -1015,31 +1037,31 @@
       <c r="B5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="22" t="s">
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="24"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="23"/>
       <c r="M5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N5" s="28">
+      <c r="N5" s="15">
         <v>45503</v>
       </c>
       <c r="O5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
     </row>
     <row r="6" spans="1:17" ht="60" customHeight="1">
       <c r="A6" s="11">
@@ -1048,31 +1070,31 @@
       <c r="B6" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="22" t="s">
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="24"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="23"/>
       <c r="M6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N6" s="28">
+      <c r="N6" s="15">
         <v>45503</v>
       </c>
       <c r="O6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="19"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="17"/>
     </row>
     <row r="7" spans="1:17" ht="60" customHeight="1">
       <c r="A7" s="11">
@@ -1081,34 +1103,75 @@
       <c r="B7" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="22" t="s">
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="24"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="23"/>
       <c r="M7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N7" s="28">
+      <c r="N7" s="15">
         <v>45503</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="19"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="17"/>
+    </row>
+    <row r="8" spans="1:17" ht="77.5" customHeight="1">
+      <c r="A8" s="11">
+        <v>5</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N8" s="15">
+        <v>45504</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="20">
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="F2:M2"/>
     <mergeCell ref="P6:Q6"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="C5:G5"/>
@@ -1121,11 +1184,6 @@
     <mergeCell ref="P5:Q5"/>
     <mergeCell ref="H4:L4"/>
     <mergeCell ref="H5:L5"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="F2:M2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
